--- a/werkomgeving/voorbeeldmodel/begrippenkader/Dienstbetrekking.xlsx
+++ b/werkomgeving/voorbeeldmodel/begrippenkader/Dienstbetrekking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcobrattinga/GITREPO/mim-metamodel/werkomgeving/voorbeeldmodel/begrippenkader/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F824DB-ADDB-EC4A-A9FF-D3BF4C7141DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0C309B-A7AC-054E-AB5D-93B9C605F5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1920" windowWidth="34560" windowHeight="18900" activeTab="1" xr2:uid="{845DB935-A232-42CF-AB27-2E49A56C7476}"/>
   </bookViews>
@@ -361,25 +361,13 @@
     <t>Arbeidsovereenkomst</t>
   </si>
   <si>
-    <t>Een arbeidsovereenkomst is een overeenkomst waarbij de ene partij, de werknemer, zich verbindt in dienst van de andere partij, de werkgever, tegen loon gedurende zekere tijd arbeid te verrichten.</t>
-  </si>
-  <si>
     <t>Artikel 610, BW Boek 7</t>
-  </si>
-  <si>
-    <t>Een dienstbetrekking is een verbintenis tussen een werkgever en een werknemer om tegen loon gedurende zekere tijd arbeid te verrichten.</t>
   </si>
   <si>
     <t>Arbeidsrelatie</t>
   </si>
   <si>
-    <t>Een werkgever is een persoon in de rol van werkgever bij een dienstbetrekking</t>
-  </si>
-  <si>
     <t>Werkgever</t>
-  </si>
-  <si>
-    <t>Een werknemer is een persoon in de rol van werknemer bij een dienstbetrekking</t>
   </si>
   <si>
     <t>Werknemer</t>
@@ -465,10 +453,22 @@
     <t>Verplichting tot uitbetalen loon</t>
   </si>
   <si>
-    <t>Een verplichting tot leveren van arbeid is een verplicht van een werknemer om arbeid te leveren ten dienste van een werkgever</t>
+    <t>Een werkgever is een persoon die arbeid verricht voor een ander in ruil voor loon</t>
   </si>
   <si>
-    <t>Een verplichting tot uitbetalen loon is een verplicht van een werkgever om loon uit te betalen aan een werknemer</t>
+    <t>Een werknemer is een persoon die arbeid laat verrichten door een ander in ruil voor loon</t>
+  </si>
+  <si>
+    <t>Een dienstbetrekking is een verbintenis tussen een [werkgever] en een [werknemer] om tegen loon gedurende zekere tijd arbeid te verrichten.</t>
+  </si>
+  <si>
+    <t>Een arbeidsovereenkomst is een overeenkomst waarbij de ene partij, de [werknemer], zich verbindt in dienst van de andere partij, de [werkgever], tegen loon gedurende zekere tijd arbeid te verrichten.</t>
+  </si>
+  <si>
+    <t>Een verplichting tot leveren van arbeid is een verplicht van een [werknemer] om arbeid te leveren ten dienste van een [werkgever]</t>
+  </si>
+  <si>
+    <t>Een verplichting tot uitbetalen loon is een verplicht van een [werkgever] om loon uit te betalen aan een [werknemer]</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1341,7 @@
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="str">
         <f ca="1">UPPER(_xlfn.CONCAT(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>8BF587B0-6BF4-43E9-BE9B-7A416CA2D2C9</v>
+        <v>FCE3B0B7-232C-4CD2-9307-D5EDAE5D959C</v>
       </c>
       <c r="B9" s="32"/>
     </row>
@@ -1398,7 +1398,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1430,7 +1430,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F1" s="25" t="s">
         <v>7</v>
@@ -1456,15 +1456,15 @@
         <v>58</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -1476,17 +1476,17 @@
         <v>56</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
@@ -1495,38 +1495,38 @@
     </row>
     <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -1535,18 +1535,18 @@
     </row>
     <row r="6" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>86</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -1555,18 +1555,18 @@
     </row>
     <row r="7" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>87</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -5921,7 +5921,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>35</v>
@@ -5936,7 +5936,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>35</v>
@@ -13058,66 +13058,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="24" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>73</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>75</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>77</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/werkomgeving/voorbeeldmodel/begrippenkader/Dienstbetrekking.xlsx
+++ b/werkomgeving/voorbeeldmodel/begrippenkader/Dienstbetrekking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcobrattinga/GITREPO/mim-metamodel/werkomgeving/voorbeeldmodel/begrippenkader/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0C309B-A7AC-054E-AB5D-93B9C605F5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FEA83D-348A-744C-A5CE-0DD77032AD6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1920" windowWidth="34560" windowHeight="18900" activeTab="1" xr2:uid="{845DB935-A232-42CF-AB27-2E49A56C7476}"/>
   </bookViews>
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="88">
   <si>
     <t>Naam model</t>
   </si>
@@ -346,9 +346,6 @@
     <t>BW</t>
   </si>
   <si>
-    <t>Burgerlijk Wetboek</t>
-  </si>
-  <si>
     <t>Burgerlijk Wetboek, Boek 7</t>
   </si>
   <si>
@@ -453,12 +450,6 @@
     <t>Verplichting tot uitbetalen loon</t>
   </si>
   <si>
-    <t>Een werkgever is een persoon die arbeid verricht voor een ander in ruil voor loon</t>
-  </si>
-  <si>
-    <t>Een werknemer is een persoon die arbeid laat verrichten door een ander in ruil voor loon</t>
-  </si>
-  <si>
     <t>Een dienstbetrekking is een verbintenis tussen een [werkgever] en een [werknemer] om tegen loon gedurende zekere tijd arbeid te verrichten.</t>
   </si>
   <si>
@@ -470,12 +461,21 @@
   <si>
     <t>Een verplichting tot uitbetalen loon is een verplicht van een [werkgever] om loon uit te betalen aan een [werknemer]</t>
   </si>
+  <si>
+    <t>https://wetten.overheid.nl/BWBR0005290</t>
+  </si>
+  <si>
+    <t>Een werknemer is een natuurlijk persoon die arbeid laat verrichten door een ander in ruil voor loon</t>
+  </si>
+  <si>
+    <t>Een werkgever is een organisatie die arbeid verricht voor een ander in ruil voor loon</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,6 +556,14 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -853,10 +861,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -953,8 +962,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1293,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1301,7 +1314,7 @@
         <v>43</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1341,7 +1354,7 @@
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="str">
         <f ca="1">UPPER(_xlfn.CONCAT(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>FCE3B0B7-232C-4CD2-9307-D5EDAE5D959C</v>
+        <v>7B211705-76DC-4B0A-9706-6F074B161E0F</v>
       </c>
       <c r="B9" s="32"/>
     </row>
@@ -1398,7 +1411,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1430,7 +1443,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F1" s="25" t="s">
         <v>7</v>
@@ -1453,18 +1466,18 @@
     </row>
     <row r="2" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -1473,20 +1486,20 @@
     </row>
     <row r="3" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
@@ -1495,18 +1508,18 @@
     </row>
     <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -1515,18 +1528,18 @@
     </row>
     <row r="5" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -1535,18 +1548,18 @@
     </row>
     <row r="6" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -1555,18 +1568,18 @@
     </row>
     <row r="7" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -5915,13 +5928,13 @@
     </row>
     <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>35</v>
@@ -5930,13 +5943,13 @@
     </row>
     <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>35</v>
@@ -9732,7 +9745,7 @@
   <dimension ref="A1:F395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9773,26 +9786,22 @@
         <v>53</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
-      <c r="D2" s="9"/>
+      <c r="D2" s="34" t="s">
+        <v>85</v>
+      </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>53</v>
-      </c>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
       <c r="B3" s="9"/>
-      <c r="C3" s="9" t="s">
-        <v>54</v>
-      </c>
+      <c r="C3" s="9"/>
       <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="E3" s="9"/>
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -12933,11 +12942,14 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{D30AF71D-3F2E-4FEF-80D9-E8A843248892}"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{55463557-CBE2-EA4B-90D4-88899C4ABE50}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;L_x000D_&amp;1#&amp;"Tahoma"&amp;9&amp;KCF022B C2 - Restricted use </oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -13058,66 +13070,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>64</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>69</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>71</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>73</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>75</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>77</v>
-      </c>
-      <c r="B8" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/werkomgeving/voorbeeldmodel/begrippenkader/Dienstbetrekking.xlsx
+++ b/werkomgeving/voorbeeldmodel/begrippenkader/Dienstbetrekking.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcobrattinga/GITREPO/mim-metamodel/werkomgeving/voorbeeldmodel/begrippenkader/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FEA83D-348A-744C-A5CE-0DD77032AD6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE6C971-933E-584B-9D27-362DF4B6BFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1920" windowWidth="34560" windowHeight="18900" activeTab="1" xr2:uid="{845DB935-A232-42CF-AB27-2E49A56C7476}"/>
   </bookViews>
@@ -465,10 +465,10 @@
     <t>https://wetten.overheid.nl/BWBR0005290</t>
   </si>
   <si>
-    <t>Een werknemer is een natuurlijk persoon die arbeid laat verrichten door een ander in ruil voor loon</t>
+    <t>Een werknemer is een natuurlijk persoon die arbeid verricht voor een ander in ruil voor loon</t>
   </si>
   <si>
-    <t>Een werkgever is een organisatie die arbeid verricht voor een ander in ruil voor loon</t>
+    <t>Een werkgever is een organisatie die arbeid laat verrichten door een ander in ruil voor loon</t>
   </si>
 </sst>
 </file>
@@ -953,6 +953,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -961,9 +964,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1345,50 +1345,50 @@
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="31"/>
+      <c r="B7" s="32"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
-      <c r="B8" s="32"/>
+      <c r="B8" s="33"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="str">
         <f ca="1">UPPER(_xlfn.CONCAT(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>7B211705-76DC-4B0A-9706-6F074B161E0F</v>
+        <v>3A2154EC-41D4-45EC-9896-230C188A1311</v>
       </c>
-      <c r="B9" s="32"/>
+      <c r="B9" s="33"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
-      <c r="B10" s="32"/>
+      <c r="B10" s="33"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
-      <c r="B11" s="32"/>
+      <c r="B11" s="33"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
-      <c r="B12" s="32"/>
+      <c r="B12" s="33"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
-      <c r="B13" s="32"/>
+      <c r="B13" s="33"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
-      <c r="B14" s="32"/>
+      <c r="B14" s="33"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
-      <c r="B15" s="32"/>
+      <c r="B15" s="33"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
-      <c r="B16" s="32"/>
+      <c r="B16" s="33"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
-      <c r="B17" s="33"/>
+      <c r="B17" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1506,7 +1506,7 @@
       <c r="J3" s="9"/>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>60</v>
       </c>
@@ -9788,7 +9788,7 @@
       <c r="C2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="31" t="s">
         <v>85</v>
       </c>
       <c r="E2" s="9" t="s">
